--- a/CombinedWEAPArea/BRMBR Performance Metric Calcs/BRMBR_workbook.xlsx
+++ b/CombinedWEAPArea/BRMBR Performance Metric Calcs/BRMBR_workbook.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="51">
   <si>
     <t>Weight</t>
   </si>
@@ -94,12 +94,6 @@
     <t>Download the performance calculation workbook for the BRMBR (BRMBR_workbook.xlsx). This can also be found in the BRMBR folder</t>
   </si>
   <si>
-    <t>Go to the Results page in your WEAP model</t>
-  </si>
-  <si>
-    <t>Select the 'chart' tab in the top right.</t>
-  </si>
-  <si>
     <t>Go to Excel</t>
   </si>
   <si>
@@ -122,15 +116,6 @@
   </si>
   <si>
     <t>How to calculate performance metrics for the BRMBR:</t>
-  </si>
-  <si>
-    <t>Select the 'Damand', then 'Unmet Demand' in the first drop down.</t>
-  </si>
-  <si>
-    <t>On the right most drop down select 'All Scenarios'.</t>
-  </si>
-  <si>
-    <t>On the bottom left drop down select 'Demand Site: Bird Refuge'.</t>
   </si>
   <si>
     <t>Units should be in 'Thousand' 'Acre-foot' and 'All months (12)' and 'No comparison' should be chosen.</t>
@@ -176,6 +161,161 @@
   </si>
   <si>
     <t>Definitions of Performance Criteria Statistical Evaluations</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">On the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>left most drop down select 'Bird Refuge'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the default for this drop down is 'Scenario: Reference'.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>On the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> right most drop down select 'All Scenarios'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Note:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the default for this drop down is 'All Demand Sites'.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Figure 1. </t>
+  </si>
+  <si>
+    <t>Screen shot of how the results page should look befor selecting the 'Export Table to Excel'.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Select the 'Damand', then </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">'Unmet Demand' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the first drop down.</t>
+    </r>
+  </si>
+  <si>
+    <t>Select the 'Chart' tab in the top right.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Go to the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Results</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> page in your WEAP model</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -375,10 +515,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -477,13 +619,13 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="53">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -509,6 +651,7 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -533,6 +676,7 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -575,6 +719,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4330700"/>
+          <a:ext cx="16865600" cy="10147300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -843,23 +1030,25 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -875,7 +1064,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -883,7 +1072,7 @@
         <v>2.1</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -891,7 +1080,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="B7" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -899,7 +1088,7 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="B8" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -907,7 +1096,7 @@
         <v>2.4</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -915,7 +1104,7 @@
         <v>2.5</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -923,7 +1112,7 @@
         <v>2.6</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -931,7 +1120,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -939,7 +1128,7 @@
         <v>3.1</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -947,7 +1136,7 @@
         <v>3.2</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -955,7 +1144,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -963,7 +1152,7 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -971,7 +1160,7 @@
         <v>4.2</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -979,7 +1168,7 @@
         <v>4.3</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -987,7 +1176,7 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -995,7 +1184,7 @@
         <v>4.5</v>
       </c>
       <c r="B20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -1003,12 +1192,21 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1027,7 +1225,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -22326,28 +22524,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
     </row>
     <row r="2" spans="1:5" ht="28">
-      <c r="A2" s="37"/>
-      <c r="B2" s="38" t="s">
+      <c r="A2" s="38"/>
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -22603,7 +22801,7 @@
   <sheetData>
     <row r="1" spans="1:577">
       <c r="A1" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:577">
@@ -26149,7 +26347,7 @@
     </row>
     <row r="4" spans="1:577">
       <c r="A4" s="22" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B4" s="12">
         <v>44</v>
@@ -49521,7 +49719,7 @@
   <sheetData>
     <row r="1" spans="1:494">
       <c r="A1" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:494">
@@ -49529,7 +49727,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -50152,7 +50350,7 @@
   <sheetData>
     <row r="1" spans="1:494">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:494">
@@ -52128,7 +52326,7 @@
         <v>42619</v>
       </c>
       <c r="RZ2" s="31" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:494">
@@ -71926,7 +72124,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -71934,7 +72132,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:2">

--- a/CombinedWEAPArea/BRMBR Performance Metric Calcs/BRMBR_workbook.xlsx
+++ b/CombinedWEAPArea/BRMBR Performance Metric Calcs/BRMBR_workbook.xlsx
@@ -1019,7 +1019,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1032,9 +1032,7 @@
   </sheetPr>
   <dimension ref="A1:B23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
